--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="409">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -655,13 +655,7 @@
 The 'substanceExposureRisk' extension is available as a structured and more flexible alternative to the 'code' element for making positive or negative allergy or intolerance statements.  This extension provides the capability to make "no known allergy" (or "no risk of adverse reaction") statements regarding any coded substance/product (including cases when a pre-coordinated "no allergy to x" concept for that substance/product does not exist).  If the 'substanceExposureRisk' extension is present, the AllergyIntolerance.code element SHALL be omitted.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Type of the substance/product, allergy or intolerance condition, or negation/exclusion codes for reporting no known allergies.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
     <t>substance/product:@@ -749,6 +743,127 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
+    <t>AllergyIntolerance.code.coding.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.code.coding.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
     <t>AllergyIntolerance.code.text</t>
   </si>
   <si>
@@ -1071,6 +1186,9 @@
   </si>
   <si>
     <t>Coding of the specific substance (or pharmaceutical product) with a terminology capable of triggering decision support should be used wherever possible.  The 'code' element allows for the use of a specific substance or pharmaceutical product, or a group or class of substances. In the case of an allergy or intolerance to a class of substances, (for example, "penicillins"), the 'reaction.substance' element could be used to code the specific substance that was identified as having caused the reaction (for example, "amoxycillin"). Duplication of the value in the 'code' and 'reaction.substance' elements is acceptable when a specific substance has been recorded in 'code'.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes defining the type of the substance (including pharmaceutical products).</t>
@@ -1506,7 +1624,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AM53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3404,13 +3522,11 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y17" s="2"/>
+      <c r="Z17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3443,21 +3559,21 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3480,13 +3596,13 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3537,7 +3653,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3552,7 +3668,7 @@
         <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>78</v>
@@ -3563,10 +3679,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3595,7 +3711,7 @@
         <v>133</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>135</v>
@@ -3636,19 +3752,19 @@
         <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AC19" t="s" s="2">
+      <c r="AF19" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3663,7 +3779,7 @@
         <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>78</v>
@@ -3674,10 +3790,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3685,13 +3801,13 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>78</v>
@@ -3700,19 +3816,19 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -3761,7 +3877,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3776,21 +3892,21 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3798,35 +3914,31 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>234</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -3874,7 +3986,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3886,55 +3998,57 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -3971,48 +4085,48 @@
         <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4026,25 +4140,29 @@
         <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4092,7 +4210,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4104,35 +4222,35 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4141,19 +4259,19 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4191,48 +4309,48 @@
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4255,18 +4373,18 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4314,7 +4432,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4323,19 +4441,19 @@
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" hidden="true">
@@ -4357,7 +4475,7 @@
         <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>78</v>
@@ -4366,7 +4484,7 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>253</v>
@@ -4374,10 +4492,10 @@
       <c r="M26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4401,31 +4519,31 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4440,21 +4558,21 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4477,7 +4595,7 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>261</v>
@@ -4488,7 +4606,9 @@
       <c r="N27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4536,7 +4656,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4551,21 +4671,21 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4573,7 +4693,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>86</v>
@@ -4588,18 +4708,20 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4647,7 +4769,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4662,50 +4784,50 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>129</v>
+        <v>274</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4756,10 +4878,10 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>86</v>
@@ -4771,21 +4893,21 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4808,13 +4930,13 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>208</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4865,7 +4987,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>211</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4877,13 +4999,13 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -4891,21 +5013,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -4917,15 +5039,17 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>133</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -4962,79 +5086,81 @@
         <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>218</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5083,25 +5209,25 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI32" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>129</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5109,14 +5235,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5135,16 +5261,16 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>298</v>
+        <v>100</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5170,13 +5296,13 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -5194,7 +5320,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5209,21 +5335,21 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>302</v>
+        <v>129</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5243,19 +5369,19 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>283</v>
+        <v>144</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5305,7 +5431,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5320,7 +5446,7 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>78</v>
@@ -5331,10 +5457,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5345,28 +5471,28 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>311</v>
+        <v>208</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5416,13 +5542,13 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
@@ -5431,7 +5557,7 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>315</v>
+        <v>129</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>78</v>
@@ -5442,10 +5568,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5456,7 +5582,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5468,13 +5594,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5525,13 +5651,13 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
@@ -5540,10 +5666,10 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5551,10 +5677,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5577,13 +5703,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5634,7 +5760,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5646,13 +5772,13 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>214</v>
+        <v>318</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -5660,21 +5786,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -5686,17 +5812,15 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>132</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>133</v>
+        <v>322</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -5745,72 +5869,68 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>214</v>
+        <v>324</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -5864,19 +5984,19 @@
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>129</v>
+        <v>332</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -5884,14 +6004,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5907,19 +6027,19 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>153</v>
+        <v>336</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5945,13 +6065,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>333</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -5969,7 +6089,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5984,32 +6104,32 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>78</v>
+        <v>341</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6021,16 +6141,16 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6056,13 +6176,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -6080,13 +6200,13 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
@@ -6095,32 +6215,32 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>176</v>
+        <v>347</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6132,16 +6252,16 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>210</v>
+        <v>349</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6191,13 +6311,13 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
@@ -6206,7 +6326,7 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
@@ -6217,10 +6337,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6231,7 +6351,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6243,13 +6363,13 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6300,13 +6420,13 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
@@ -6315,21 +6435,21 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>280</v>
+        <v>358</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>352</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6352,17 +6472,15 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>354</v>
+        <v>209</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6387,13 +6505,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>358</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6411,7 +6529,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>353</v>
+        <v>211</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6423,10 +6541,10 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
@@ -6437,21 +6555,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6463,16 +6581,16 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
+        <v>133</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>361</v>
+        <v>214</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>362</v>
+        <v>135</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6498,13 +6616,13 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -6522,22 +6640,22 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>218</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>365</v>
+        <v>212</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>78</v>
@@ -6548,14 +6666,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6568,24 +6686,26 @@
         <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>311</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -6633,7 +6753,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6645,20 +6765,795 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK46" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AK47" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM46">
+  <autoFilter ref="A1:AM53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6668,7 +7563,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -655,7 +655,7 @@
 The 'substanceExposureRisk' extension is available as a structured and more flexible alternative to the 'code' element for making positive or negative allergy or intolerance statements.  This extension provides the capability to make "no known allergy" (or "no risk of adverse reaction") statements regarding any coded substance/product (including cases when a pre-coordinated "no allergy to x" concept for that substance/product does not exist).  If the 'substanceExposureRisk' extension is present, the AllergyIntolerance.code element SHALL be omitted.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-code</t>
   </si>
   <si>
     <t>substance/product:
--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
+++ b/StructureDefinition-AllergyIntoleranceIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
